--- a/docs/Ticket电影购票系统数据字典.xlsx
+++ b/docs/Ticket电影购票系统数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="12060" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>Ticket 数据库</t>
   </si>
@@ -327,100 +327,82 @@
     <t>友情链接的id</t>
   </si>
   <si>
-    <t>linkname</t>
-  </si>
-  <si>
     <t>友情链接名称</t>
   </si>
   <si>
-    <t>非空、唯一索引</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
     <t>友情链接地址</t>
   </si>
   <si>
+    <t>config网站配置表</t>
+  </si>
+  <si>
+    <t>配置表id</t>
+  </si>
+  <si>
+    <t>webname</t>
+  </si>
+  <si>
+    <t>网站名称</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>网站关键字</t>
+  </si>
+  <si>
     <t>logo</t>
   </si>
   <si>
-    <t>友情链接logo</t>
+    <t>网站logo</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>网站版权</t>
+  </si>
+  <si>
+    <t>网站是否关闭</t>
+  </si>
+  <si>
+    <t>非空、默认为 1</t>
+  </si>
+  <si>
+    <t>carousel轮播表</t>
+  </si>
+  <si>
+    <t>轮播ID</t>
+  </si>
+  <si>
+    <t>自增、主键、无符号、非空</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>轮播标题</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>comment 评论表</t>
+  </si>
+  <si>
+    <t>评论ID</t>
   </si>
   <si>
     <t>content</t>
   </si>
   <si>
-    <t>友情链接描述</t>
+    <t>评论内容</t>
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>ordernum</t>
-  </si>
-  <si>
-    <t>友情链接排序</t>
-  </si>
-  <si>
-    <t>config网站配置表</t>
-  </si>
-  <si>
-    <t>配置表id</t>
-  </si>
-  <si>
-    <t>webname</t>
-  </si>
-  <si>
-    <t>网站名称</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>网站关键字</t>
-  </si>
-  <si>
-    <t>网站logo</t>
-  </si>
-  <si>
-    <t>copy</t>
-  </si>
-  <si>
-    <t>网站版权</t>
-  </si>
-  <si>
-    <t>网站是否关闭</t>
-  </si>
-  <si>
-    <t>非空、默认为 1</t>
-  </si>
-  <si>
-    <t>carousel轮播表</t>
-  </si>
-  <si>
-    <t>轮播ID</t>
-  </si>
-  <si>
-    <t>自增、主键、无符号、非空</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>轮播标题</t>
-  </si>
-  <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>comment 评论表</t>
-  </si>
-  <si>
-    <t>评论ID</t>
-  </si>
-  <si>
-    <t>评论内容</t>
   </si>
 </sst>
 </file>
@@ -428,10 +410,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -469,6 +451,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -484,11 +503,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,42 +550,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,9 +564,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,37 +574,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,7 +614,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,13 +704,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,127 +770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,24 +1088,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,6 +1103,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,23 +1140,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,6 +1163,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1215,10 +1197,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,137 +1209,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,15 +1393,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,45 +1408,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,18 +1418,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1586,7 +1511,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1866,10 +1791,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2113,22 +2038,22 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1"/>
     <row r="21" s="1" customFormat="1" ht="25" customHeight="1" spans="1:5">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2141,7 +2066,7 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -2155,7 +2080,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -2169,7 +2094,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -2183,16 +2108,16 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2206,12 +2131,12 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="25">
+      <c r="E27" s="22">
         <v>4</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A28" s="10" t="s">
@@ -2226,10 +2151,10 @@
       <c r="D28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A29" s="13" t="s">
@@ -2244,16 +2169,16 @@
       <c r="D29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -2262,10 +2187,10 @@
       <c r="D30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A31" s="13" t="s">
@@ -2280,10 +2205,10 @@
       <c r="D31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A32" s="13" t="s">
@@ -2298,10 +2223,10 @@
       <c r="D32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A33" s="13" t="s">
@@ -2316,10 +2241,10 @@
       <c r="D33" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A34" s="13" t="s">
@@ -2334,10 +2259,10 @@
       <c r="D34" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:8">
       <c r="A35" s="13" t="s">
@@ -2352,34 +2277,34 @@
       <c r="D35" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="25" customHeight="1" spans="5:8">
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A38" s="7" t="s">
@@ -2390,12 +2315,12 @@
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="27">
+      <c r="E38" s="22">
         <v>5</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A39" s="10" t="s">
@@ -2410,10 +2335,10 @@
       <c r="D39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A40" s="13" t="s">
@@ -2428,10 +2353,10 @@
       <c r="D40" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A41" s="13" t="s">
@@ -2446,10 +2371,10 @@
       <c r="D41" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A42" s="13" t="s">
@@ -2464,10 +2389,10 @@
       <c r="D42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A43" s="13" t="s">
@@ -2482,30 +2407,30 @@
       <c r="D43" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="35"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="25" customHeight="1" spans="1:5">
       <c r="A46" s="7" t="s">
@@ -2538,7 +2463,7 @@
       <c r="A48" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="14" t="s">
@@ -2549,10 +2474,10 @@
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="14" t="s">
@@ -2563,10 +2488,10 @@
       </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="14" t="s">
         <v>84</v>
       </c>
       <c r="C50" s="14" t="s">
@@ -2591,16 +2516,16 @@
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2608,17 +2533,17 @@
       <c r="A53" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="42"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="25" customHeight="1" spans="1:5">
       <c r="A55" s="7" t="s">
@@ -2651,7 +2576,7 @@
       <c r="A57" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -2662,10 +2587,10 @@
       </c>
     </row>
     <row r="58" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="14" t="s">
@@ -2676,10 +2601,10 @@
       </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="14" t="s">
         <v>90</v>
       </c>
       <c r="C59" s="14" t="s">
@@ -2718,10 +2643,10 @@
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="25" customHeight="1" spans="1:5">
       <c r="A63" s="7" t="s">
@@ -2821,24 +2746,24 @@
       </c>
     </row>
     <row r="70" ht="27" customHeight="1" spans="1:4">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" customFormat="1" ht="27" customHeight="1" spans="1:4">
-      <c r="A71" s="47"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="30"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="25" customHeight="1" spans="1:5">
       <c r="A72" s="7" t="s">
@@ -2854,16 +2779,16 @@
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="53" t="s">
+      <c r="D73" s="34" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2883,124 +2808,124 @@
     </row>
     <row r="75" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
       <c r="A75" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
       <c r="A76" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A77" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" ht="28" customHeight="1"/>
+    <row r="78" s="1" customFormat="1" ht="25" customHeight="1" spans="1:5">
+      <c r="A78" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A79" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A80" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A81" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B81" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C81" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D81" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A78" s="13" t="s">
+    <row r="82" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A82" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B82" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C78" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A79" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="21" t="s">
+      <c r="C82" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="15" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="80" ht="28" customHeight="1"/>
-    <row r="81" s="1" customFormat="1" ht="25" customHeight="1" spans="1:5">
-      <c r="A81" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A82" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="53" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
       <c r="A83" s="13" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>9</v>
+        <v>113</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
       <c r="A84" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="35" t="s">
         <v>63</v>
       </c>
       <c r="D84" s="15" t="s">
@@ -3008,217 +2933,175 @@
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" ht="25" customHeight="1"/>
+    <row r="87" ht="25" customHeight="1" spans="1:5">
+      <c r="A87" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="9"/>
+      <c r="E87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" ht="25" customHeight="1" spans="1:4">
+      <c r="A88" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" ht="25" customHeight="1" spans="1:4">
+      <c r="A89" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="C89" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C85" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D85" s="15" t="s">
+    </row>
+    <row r="90" ht="25" customHeight="1" spans="1:4">
+      <c r="A90" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A86" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D86" s="15" t="s">
+    <row r="91" ht="25" customHeight="1" spans="1:4">
+      <c r="A91" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A87" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D87" s="15" t="s">
+    <row r="92" ht="25" customHeight="1" spans="1:4">
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+    </row>
+    <row r="93" ht="25" customHeight="1" spans="1:5">
+      <c r="A93" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="9"/>
+      <c r="E93">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25" customHeight="1" spans="1:4">
+      <c r="A94" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" ht="25" customHeight="1" spans="1:4">
+      <c r="A95" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" ht="25" customHeight="1" spans="1:4">
+      <c r="A96" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A88" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="21" t="s">
+    <row r="97" ht="25" customHeight="1" spans="1:4">
+      <c r="A97" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="89" ht="25" customHeight="1"/>
-    <row r="90" ht="25" customHeight="1" spans="1:5">
-      <c r="A90" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="8" t="s">
+      <c r="C97" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" ht="25" customHeight="1" spans="1:4">
+      <c r="A98" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="9"/>
-      <c r="E90">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" ht="25" customHeight="1" spans="1:4">
-      <c r="A91" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" ht="25" customHeight="1" spans="1:4">
-      <c r="A92" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="14" t="s">
+      <c r="B98" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C92" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="15" t="s">
+      <c r="C98" s="17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="93" ht="25" customHeight="1" spans="1:4">
-      <c r="A93" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" ht="25" customHeight="1" spans="1:4">
-      <c r="A94" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" ht="25" customHeight="1" spans="1:4">
-      <c r="A95" s="36"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-    </row>
-    <row r="96" ht="25" customHeight="1" spans="1:5">
-      <c r="A96" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="9"/>
-      <c r="E96">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" ht="25" customHeight="1" spans="1:4">
-      <c r="A97" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" ht="25" customHeight="1" spans="1:4">
-      <c r="A98" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" ht="25" customHeight="1" spans="1:4">
-      <c r="A99" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" ht="25" customHeight="1" spans="1:4">
-      <c r="A100" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" ht="25" customHeight="1" spans="1:4">
-      <c r="A101" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" s="21" t="s">
+      <c r="D98" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3238,9 +3121,9 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B93:D93"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/Ticket电影购票系统数据字典.xlsx
+++ b/docs/Ticket电影购票系统数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="12060" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>Ticket 数据库</t>
   </si>
@@ -291,7 +291,7 @@
     <t>类型名称</t>
   </si>
   <si>
-    <t>indent订单表</t>
+    <t>order订单表</t>
   </si>
   <si>
     <t>订单ID</t>
@@ -300,37 +300,37 @@
     <t>无符号、非空、自增、主键</t>
   </si>
   <si>
-    <t>varchar(15)</t>
-  </si>
-  <si>
-    <t>nick_Name</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>订单编号</t>
-  </si>
-  <si>
-    <t>订单状态</t>
-  </si>
-  <si>
-    <t>indenttime</t>
-  </si>
-  <si>
-    <t>订单时间</t>
+    <t>影片名称</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>用户名称</t>
+  </si>
+  <si>
+    <t>hall</t>
+  </si>
+  <si>
+    <t>放映时间</t>
+  </si>
+  <si>
+    <t>影厅</t>
+  </si>
+  <si>
+    <t>票价</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>数量</t>
   </si>
   <si>
     <t>friendlink 友情链接表</t>
   </si>
   <si>
-    <t>友情链接的id</t>
-  </si>
-  <si>
-    <t>linkname</t>
-  </si>
-  <si>
-    <t>友情链接名称</t>
+    <t>链接名称</t>
   </si>
   <si>
     <t>非空、唯一索引</t>
@@ -339,88 +339,73 @@
     <t>url</t>
   </si>
   <si>
-    <t>友情链接地址</t>
+    <t>链接地址</t>
+  </si>
+  <si>
+    <t>config网站配置表</t>
+  </si>
+  <si>
+    <t>配置表id</t>
+  </si>
+  <si>
+    <t>webname</t>
+  </si>
+  <si>
+    <t>网站名称</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>网站关键字</t>
   </si>
   <si>
     <t>logo</t>
   </si>
   <si>
-    <t>友情链接logo</t>
+    <t>网站logo</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>网站版权</t>
+  </si>
+  <si>
+    <t>网站是否关闭</t>
+  </si>
+  <si>
+    <t>非空、默认为 1</t>
+  </si>
+  <si>
+    <t>carousel轮播表</t>
+  </si>
+  <si>
+    <t>轮播ID</t>
+  </si>
+  <si>
+    <t>自增、主键、无符号、非空</t>
+  </si>
+  <si>
+    <t>电影名称</t>
+  </si>
+  <si>
+    <t>电影海报</t>
+  </si>
+  <si>
+    <t>comment 评论表</t>
+  </si>
+  <si>
+    <t>评论ID</t>
   </si>
   <si>
     <t>content</t>
   </si>
   <si>
-    <t>友情链接描述</t>
+    <t>评论内容</t>
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>ordernum</t>
-  </si>
-  <si>
-    <t>友情链接排序</t>
-  </si>
-  <si>
-    <t>config网站配置表</t>
-  </si>
-  <si>
-    <t>配置表id</t>
-  </si>
-  <si>
-    <t>webname</t>
-  </si>
-  <si>
-    <t>网站名称</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>网站关键字</t>
-  </si>
-  <si>
-    <t>网站logo</t>
-  </si>
-  <si>
-    <t>copy</t>
-  </si>
-  <si>
-    <t>网站版权</t>
-  </si>
-  <si>
-    <t>网站是否关闭</t>
-  </si>
-  <si>
-    <t>非空、默认为 1</t>
-  </si>
-  <si>
-    <t>carousel轮播表</t>
-  </si>
-  <si>
-    <t>轮播ID</t>
-  </si>
-  <si>
-    <t>自增、主键、无符号、非空</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>轮播标题</t>
-  </si>
-  <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>comment 评论表</t>
-  </si>
-  <si>
-    <t>评论ID</t>
-  </si>
-  <si>
-    <t>评论内容</t>
   </si>
 </sst>
 </file>
@@ -429,9 +414,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -469,16 +454,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,8 +485,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -501,14 +509,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,24 +536,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,13 +554,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,18 +568,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,6 +582,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -626,13 +611,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,12 +659,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -668,6 +677,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -680,7 +725,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,116 +789,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1012,6 +997,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -1106,6 +1130,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,11 +1158,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,60 +1212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1207,6 +1222,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1215,10 +1239,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,137 +1251,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,15 +1435,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,45 +1450,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,18 +1462,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1504,22 +1471,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1586,7 +1562,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1866,10 +1842,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2113,22 +2089,22 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1"/>
     <row r="21" s="1" customFormat="1" ht="25" customHeight="1" spans="1:5">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2141,7 +2117,7 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -2155,7 +2131,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -2169,7 +2145,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -2183,16 +2159,16 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2206,12 +2182,12 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="25">
+      <c r="E27" s="22">
         <v>4</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A28" s="10" t="s">
@@ -2226,10 +2202,10 @@
       <c r="D28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A29" s="13" t="s">
@@ -2244,16 +2220,16 @@
       <c r="D29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -2262,10 +2238,10 @@
       <c r="D30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A31" s="13" t="s">
@@ -2280,10 +2256,10 @@
       <c r="D31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A32" s="13" t="s">
@@ -2298,10 +2274,10 @@
       <c r="D32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A33" s="13" t="s">
@@ -2316,10 +2292,10 @@
       <c r="D33" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A34" s="13" t="s">
@@ -2334,10 +2310,10 @@
       <c r="D34" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:8">
       <c r="A35" s="13" t="s">
@@ -2352,34 +2328,34 @@
       <c r="D35" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="25" customHeight="1" spans="5:8">
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A38" s="7" t="s">
@@ -2390,12 +2366,12 @@
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="27">
+      <c r="E38" s="22">
         <v>5</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A39" s="10" t="s">
@@ -2410,10 +2386,10 @@
       <c r="D39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A40" s="13" t="s">
@@ -2428,10 +2404,10 @@
       <c r="D40" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A41" s="13" t="s">
@@ -2446,10 +2422,10 @@
       <c r="D41" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A42" s="13" t="s">
@@ -2464,10 +2440,10 @@
       <c r="D42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A43" s="13" t="s">
@@ -2482,30 +2458,30 @@
       <c r="D43" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="35"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="25" customHeight="1" spans="1:5">
       <c r="A46" s="7" t="s">
@@ -2538,7 +2514,7 @@
       <c r="A48" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="14" t="s">
@@ -2549,10 +2525,10 @@
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="14" t="s">
@@ -2563,10 +2539,10 @@
       </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="14" t="s">
         <v>84</v>
       </c>
       <c r="C50" s="14" t="s">
@@ -2591,16 +2567,16 @@
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2608,17 +2584,17 @@
       <c r="A53" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="42"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="25" customHeight="1" spans="1:5">
       <c r="A55" s="7" t="s">
@@ -2651,7 +2627,7 @@
       <c r="A57" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -2662,10 +2638,10 @@
       </c>
     </row>
     <row r="58" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="14" t="s">
@@ -2676,10 +2652,10 @@
       </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="14" t="s">
         <v>90</v>
       </c>
       <c r="C59" s="14" t="s">
@@ -2718,10 +2694,10 @@
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="25" customHeight="1" spans="1:5">
       <c r="A63" s="7" t="s">
@@ -2766,13 +2742,13 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
       <c r="A66" s="13" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>18</v>
@@ -2783,21 +2759,21 @@
         <v>95</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
       <c r="A68" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>63</v>
@@ -2807,200 +2783,198 @@
       </c>
     </row>
     <row r="69" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A69" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>98</v>
+      <c r="A69" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" ht="27" customHeight="1" spans="1:4">
-      <c r="A70" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" s="45" t="s">
+    <row r="70" s="2" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A70" s="28"/>
+      <c r="B70" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" ht="27" customHeight="1" spans="1:4">
+      <c r="A71" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A72" s="31"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="33"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="25" customHeight="1" spans="1:5">
+      <c r="A73" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="1">
         <v>9</v>
       </c>
-      <c r="D70" s="46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" ht="27" customHeight="1" spans="1:4">
-      <c r="A71" s="47"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="25" customHeight="1" spans="1:5">
-      <c r="A72" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A73" s="50" t="s">
+    </row>
+    <row r="74" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A74" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B74" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="52" t="s">
+      <c r="C74" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="53" t="s">
+      <c r="D74" s="37" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A74" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
       <c r="A75" s="13" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
       <c r="A76" s="13" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
       <c r="A77" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D77" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" ht="28" customHeight="1"/>
+    <row r="79" s="1" customFormat="1" ht="25" customHeight="1" spans="1:5">
+      <c r="A79" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A80" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A81" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A82" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="15" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A78" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A79" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" ht="28" customHeight="1"/>
-    <row r="81" s="1" customFormat="1" ht="25" customHeight="1" spans="1:5">
-      <c r="A81" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A82" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="53" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
       <c r="A83" s="13" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>9</v>
+        <v>113</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>63</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
       <c r="A84" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D84" s="15" t="s">
@@ -3009,12 +2983,12 @@
     </row>
     <row r="85" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
       <c r="A85" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D85" s="15" t="s">
@@ -3022,203 +2996,175 @@
       </c>
     </row>
     <row r="86" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A86" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B86" s="14" t="s">
+      <c r="A86" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" ht="25" customHeight="1"/>
+    <row r="88" ht="25" customHeight="1" spans="1:5">
+      <c r="A88" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
+      <c r="E88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" ht="25" customHeight="1" spans="1:4">
+      <c r="A89" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" ht="25" customHeight="1" spans="1:4">
+      <c r="A90" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C90" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" ht="25" customHeight="1" spans="1:4">
+      <c r="A91" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D91" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A87" s="13" t="s">
+    <row r="92" ht="25" customHeight="1" spans="1:4">
+      <c r="A92" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" ht="25" customHeight="1" spans="1:4">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+    </row>
+    <row r="94" ht="25" customHeight="1" spans="1:5">
+      <c r="A94" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="9"/>
+      <c r="E94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="25" customHeight="1" spans="1:4">
+      <c r="A95" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" ht="25" customHeight="1" spans="1:4">
+      <c r="A96" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D87" s="15" t="s">
+    </row>
+    <row r="97" ht="25" customHeight="1" spans="1:4">
+      <c r="A97" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="15" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
-      <c r="A88" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" ht="25" customHeight="1"/>
-    <row r="90" ht="25" customHeight="1" spans="1:5">
-      <c r="A90" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="9"/>
-      <c r="E90">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" ht="25" customHeight="1" spans="1:4">
-      <c r="A91" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" ht="25" customHeight="1" spans="1:4">
-      <c r="A92" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" ht="25" customHeight="1" spans="1:4">
-      <c r="A93" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" ht="25" customHeight="1" spans="1:4">
-      <c r="A94" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" ht="25" customHeight="1" spans="1:4">
-      <c r="A95" s="36"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-    </row>
-    <row r="96" ht="25" customHeight="1" spans="1:5">
-      <c r="A96" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="9"/>
-      <c r="E96">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" ht="25" customHeight="1" spans="1:4">
-      <c r="A97" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="53" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="98" ht="25" customHeight="1" spans="1:4">
       <c r="A98" s="13" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" ht="25" customHeight="1" spans="1:4">
+      <c r="A99" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="99" ht="25" customHeight="1" spans="1:4">
-      <c r="A99" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" ht="25" customHeight="1" spans="1:4">
-      <c r="A100" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" ht="25" customHeight="1" spans="1:4">
-      <c r="A101" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" s="21" t="s">
+      <c r="C99" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3237,10 +3183,10 @@
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B94:D94"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
